--- a/data_year/zb/对外经济贸易/同各国(地区)海关货物进出口总额/出口总额/中国向大洋洲各国(地区)出口总额.xlsx
+++ b/data_year/zb/对外经济贸易/同各国(地区)海关货物进出口总额/出口总额/中国向大洋洲各国(地区)出口总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,1560 +558,929 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>841.7</v>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1138.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>270</v>
+      </c>
       <c r="F2" t="n">
-        <v>391022</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>3301671.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>382.1</v>
+      </c>
       <c r="H2" t="n">
-        <v>2486</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>35249.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>196.5</v>
+      </c>
       <c r="J2" t="n">
-        <v>25</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>374.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2841.4</v>
+      </c>
       <c r="L2" t="n">
-        <v>1514</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>12763.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>40715.5</v>
+      </c>
       <c r="N2" t="n">
-        <v>41603</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>276449.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>975.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3161</v>
+      </c>
       <c r="Q2" t="n">
-        <v>342888</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+        <v>2722026.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>28</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2260.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>329.4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7005.2</v>
+      </c>
       <c r="X2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>22.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>194602.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1493.9184</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.5482</v>
+      </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>1307.6006</v>
       </c>
       <c r="E3" t="n">
-        <v>544</v>
+        <v>209.1695</v>
       </c>
       <c r="F3" t="n">
-        <v>407440</v>
+        <v>4089432.4457</v>
       </c>
       <c r="G3" t="n">
-        <v>186</v>
+        <v>341.2766</v>
       </c>
       <c r="H3" t="n">
-        <v>1913</v>
+        <v>45302.4358</v>
       </c>
       <c r="I3" t="n">
-        <v>163</v>
+        <v>119.3753</v>
       </c>
       <c r="J3" t="n">
-        <v>27</v>
+        <v>496.6332</v>
       </c>
       <c r="K3" t="n">
-        <v>102</v>
+        <v>3067.5932</v>
       </c>
       <c r="L3" t="n">
-        <v>2608</v>
+        <v>17118.6371</v>
       </c>
       <c r="M3" t="n">
-        <v>305</v>
+        <v>13516.3238</v>
       </c>
       <c r="N3" t="n">
-        <v>43493</v>
+        <v>373669.2808</v>
       </c>
       <c r="O3" t="n">
-        <v>117</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>1327.7397</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3813.4984</v>
+      </c>
       <c r="Q3" t="n">
-        <v>357043</v>
+        <v>3390993.7531</v>
       </c>
       <c r="R3" t="n">
-        <v>39</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
+        <v>18.4639</v>
+      </c>
+      <c r="S3" t="n">
+        <v>56.3034</v>
+      </c>
       <c r="T3" t="n">
-        <v>115</v>
+        <v>13385.9903</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>19.5909</v>
       </c>
       <c r="V3" t="n">
-        <v>313</v>
+        <v>345.1841</v>
       </c>
       <c r="W3" t="n">
-        <v>232</v>
+        <v>3781.5931</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>35.7568</v>
       </c>
       <c r="Y3" t="n">
-        <v>182</v>
+        <v>219006.7095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14344.9</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>49</v>
-      </c>
-      <c r="E4" t="n">
-        <v>733</v>
-      </c>
+        <v>3398.3</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>528920</v>
+        <v>4486756.5</v>
       </c>
       <c r="G4" t="n">
-        <v>130</v>
+        <v>407.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2725</v>
+        <v>64009.7</v>
       </c>
       <c r="I4" t="n">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>403.4</v>
       </c>
       <c r="K4" t="n">
-        <v>107</v>
+        <v>3668.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3057</v>
+        <v>21402.3</v>
       </c>
       <c r="M4" t="n">
-        <v>367</v>
+        <v>9665.299999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>59597</v>
+        <v>386454.2</v>
       </c>
       <c r="O4" t="n">
-        <v>483</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>2016</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4381.8</v>
+      </c>
       <c r="Q4" t="n">
-        <v>458504</v>
+        <v>3772830.9</v>
       </c>
       <c r="R4" t="n">
-        <v>42</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>97.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20.1</v>
+      </c>
       <c r="T4" t="n">
-        <v>141</v>
+        <v>13361.2</v>
       </c>
       <c r="U4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>274</v>
+        <v>396.4</v>
       </c>
       <c r="W4" t="n">
-        <v>279</v>
+        <v>7174.6</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>32.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>2369</v>
+        <v>182320</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.7</v>
+        <v>753.4</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>89.09999999999999</v>
+        <v>1865.7</v>
       </c>
       <c r="E5" t="n">
-        <v>755.7</v>
+        <v>254.9</v>
       </c>
       <c r="F5" t="n">
-        <v>729001</v>
+        <v>4461455.6</v>
       </c>
       <c r="G5" t="n">
-        <v>274.3</v>
+        <v>493.8</v>
       </c>
       <c r="H5" t="n">
-        <v>6092.6</v>
+        <v>55307</v>
       </c>
       <c r="I5" t="n">
-        <v>18.9</v>
+        <v>318.6</v>
       </c>
       <c r="J5" t="n">
-        <v>49.7</v>
+        <v>1948</v>
       </c>
       <c r="K5" t="n">
-        <v>211.6</v>
+        <v>3680.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2596.6</v>
+        <v>24449.8</v>
       </c>
       <c r="M5" t="n">
-        <v>763.2</v>
+        <v>9034.1</v>
       </c>
       <c r="N5" t="n">
-        <v>80251</v>
+        <v>413168.4</v>
       </c>
       <c r="O5" t="n">
-        <v>204.3</v>
+        <v>3848</v>
       </c>
       <c r="P5" t="n">
-        <v>328.8</v>
+        <v>4504.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>626358</v>
+        <v>3755416.3</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>107.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>71.40000000000001</v>
+      </c>
       <c r="T5" t="n">
-        <v>288.5</v>
+        <v>38048.3</v>
       </c>
       <c r="U5" t="n">
-        <v>32.7</v>
+        <v>13.4</v>
       </c>
       <c r="V5" t="n">
-        <v>322.9</v>
+        <v>427.9</v>
       </c>
       <c r="W5" t="n">
-        <v>283.2</v>
+        <v>5447.3</v>
       </c>
       <c r="X5" t="n">
-        <v>38.2</v>
+        <v>51.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>10020.6</v>
+        <v>142245.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224.4</v>
+        <v>464.4545</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>87.3</v>
+        <v>2062.0381</v>
       </c>
       <c r="E6" t="n">
-        <v>1038.2</v>
+        <v>519.886</v>
       </c>
       <c r="F6" t="n">
-        <v>1017062.3</v>
+        <v>4657213.0442</v>
       </c>
       <c r="G6" t="n">
-        <v>744.8</v>
+        <v>934.1087</v>
       </c>
       <c r="H6" t="n">
-        <v>5252.4</v>
+        <v>63645.7258</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3</v>
+        <v>1045.6183</v>
       </c>
       <c r="J6" t="n">
-        <v>82.59999999999999</v>
+        <v>1942.0258</v>
       </c>
       <c r="K6" t="n">
-        <v>332</v>
+        <v>4944.1578</v>
       </c>
       <c r="L6" t="n">
-        <v>3253.2</v>
+        <v>28725.4471</v>
       </c>
       <c r="M6" t="n">
-        <v>825.8</v>
+        <v>9075.384</v>
       </c>
       <c r="N6" t="n">
-        <v>107736.6</v>
+        <v>473793.8735</v>
       </c>
       <c r="O6" t="n">
-        <v>627.8</v>
+        <v>2394.3302</v>
       </c>
       <c r="P6" t="n">
-        <v>758.4</v>
+        <v>4857.8521</v>
       </c>
       <c r="Q6" t="n">
-        <v>883825.1</v>
+        <v>3914595.036</v>
       </c>
       <c r="R6" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>275.1563</v>
+      </c>
+      <c r="S6" t="n">
+        <v>122.3866</v>
+      </c>
       <c r="T6" t="n">
-        <v>722.8</v>
+        <v>18023.6368</v>
       </c>
       <c r="U6" t="n">
-        <v>24.8</v>
+        <v>5.8599</v>
       </c>
       <c r="V6" t="n">
-        <v>391</v>
+        <v>401.9052</v>
       </c>
       <c r="W6" t="n">
-        <v>588.5</v>
+        <v>5586.6588</v>
       </c>
       <c r="X6" t="n">
-        <v>35.9</v>
+        <v>105.6619</v>
       </c>
       <c r="Y6" t="n">
-        <v>10457.7</v>
+        <v>123691.8408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>635</v>
+        <v>1187.4</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>141</v>
+        <v>4246.3</v>
       </c>
       <c r="E7" t="n">
-        <v>1168</v>
+        <v>580.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1288713</v>
+        <v>5048905.6</v>
       </c>
       <c r="G7" t="n">
-        <v>242</v>
+        <v>1211.1</v>
       </c>
       <c r="H7" t="n">
-        <v>6659</v>
+        <v>98699.7</v>
       </c>
       <c r="I7" t="n">
-        <v>68</v>
+        <v>1902.9</v>
       </c>
       <c r="J7" t="n">
-        <v>44</v>
+        <v>1428.9</v>
       </c>
       <c r="K7" t="n">
-        <v>508</v>
+        <v>8060.5</v>
       </c>
       <c r="L7" t="n">
-        <v>4300</v>
+        <v>32674.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1515</v>
+        <v>10292</v>
       </c>
       <c r="N7" t="n">
-        <v>135344</v>
+        <v>491906</v>
       </c>
       <c r="O7" t="n">
-        <v>294</v>
+        <v>2701.2</v>
       </c>
       <c r="P7" t="n">
-        <v>1566</v>
+        <v>9089.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1106150</v>
+        <v>4030650.9</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>180.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>75.5</v>
+      </c>
       <c r="T7" t="n">
-        <v>780</v>
+        <v>7030.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="V7" t="n">
-        <v>572</v>
+        <v>375.1</v>
       </c>
       <c r="W7" t="n">
-        <v>594</v>
+        <v>6226.6</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>64.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>28097</v>
+        <v>340315.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1088.1678</v>
+        <v>562.7</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>118.1138</v>
+        <v>2486.8</v>
       </c>
       <c r="E8" t="n">
-        <v>1305.9</v>
+        <v>784.9</v>
       </c>
       <c r="F8" t="n">
-        <v>1600925.6746</v>
+        <v>4754870.7</v>
       </c>
       <c r="G8" t="n">
-        <v>287.6027</v>
+        <v>1418.2</v>
       </c>
       <c r="H8" t="n">
-        <v>12639.6635</v>
+        <v>64805.3</v>
       </c>
       <c r="I8" t="n">
-        <v>68.5732</v>
+        <v>1917.8</v>
       </c>
       <c r="J8" t="n">
-        <v>82.1438</v>
+        <v>321.5</v>
       </c>
       <c r="K8" t="n">
-        <v>501.1979</v>
+        <v>8655.6</v>
       </c>
       <c r="L8" t="n">
-        <v>6799.6961</v>
+        <v>38405.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1917.1069</v>
+        <v>8565.5</v>
       </c>
       <c r="N8" t="n">
-        <v>161978.0716</v>
+        <v>476828.3</v>
       </c>
       <c r="O8" t="n">
-        <v>374.0467</v>
+        <v>3032.7</v>
       </c>
       <c r="P8" t="n">
-        <v>1888.5335</v>
+        <v>5175.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1362488.2168</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+        <v>3732740.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>77.2</v>
+      </c>
       <c r="T8" t="n">
-        <v>1832.3867</v>
+        <v>6373.9</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>0.4</v>
       </c>
       <c r="V8" t="n">
-        <v>472.7642</v>
+        <v>280.7</v>
       </c>
       <c r="W8" t="n">
-        <v>1295.1124</v>
+        <v>6958.8</v>
       </c>
       <c r="X8" t="n">
-        <v>53.4737</v>
+        <v>261.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>45717.6226</v>
+        <v>395078.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>663.8488</v>
+        <v>1834.7</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>1668.8163</v>
+        <v>1539.8</v>
       </c>
       <c r="E9" t="n">
-        <v>1016.2451</v>
+        <v>388.4</v>
       </c>
       <c r="F9" t="n">
-        <v>2110096.2636</v>
+        <v>5126407.3</v>
       </c>
       <c r="G9" t="n">
-        <v>917.1672</v>
+        <v>2628.7</v>
       </c>
       <c r="H9" t="n">
-        <v>21259.2386</v>
+        <v>77499.39999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>74.2677</v>
+        <v>1683.4</v>
       </c>
       <c r="J9" t="n">
-        <v>113.2261</v>
+        <v>741.9</v>
       </c>
       <c r="K9" t="n">
-        <v>1017.8881</v>
+        <v>9258.200000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>6368.328500000001</v>
+        <v>36549.5</v>
       </c>
       <c r="M9" t="n">
-        <v>3075.6331</v>
+        <v>8533</v>
       </c>
       <c r="N9" t="n">
-        <v>216016.76</v>
+        <v>510010.3</v>
       </c>
       <c r="O9" t="n">
-        <v>732.1334000000001</v>
+        <v>2794.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2680.0794</v>
+        <v>5931.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1798965.8537</v>
+        <v>4143822.8</v>
       </c>
       <c r="R9" t="n">
-        <v>4.0306</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>42.3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>30.4</v>
+      </c>
       <c r="T9" t="n">
-        <v>2094.4401</v>
+        <v>6558.5</v>
       </c>
       <c r="U9" t="n">
-        <v>14.2718</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
-        <v>358.0705</v>
+        <v>305</v>
       </c>
       <c r="W9" t="n">
-        <v>1154.831</v>
+        <v>6388.1</v>
       </c>
       <c r="X9" t="n">
-        <v>175.1851</v>
+        <v>223</v>
       </c>
       <c r="Y9" t="n">
-        <v>51721.6794</v>
+        <v>309640.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4625.0585</v>
+        <v>1242.5</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>246.2178</v>
+        <v>1783.6</v>
       </c>
       <c r="E10" t="n">
-        <v>737.303</v>
+        <v>1748.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2587811.7352</v>
+        <v>5709073.4</v>
       </c>
       <c r="G10" t="n">
-        <v>424.2473</v>
+        <v>1854.1</v>
       </c>
       <c r="H10" t="n">
-        <v>34406.1296</v>
+        <v>78557.5</v>
       </c>
       <c r="I10" t="n">
-        <v>305.7389</v>
+        <v>1372.6</v>
       </c>
       <c r="J10" t="n">
-        <v>87.0316</v>
+        <v>518.7</v>
       </c>
       <c r="K10" t="n">
-        <v>1190.2154</v>
+        <v>11824.1</v>
       </c>
       <c r="L10" t="n">
-        <v>9108.844500000001</v>
+        <v>45667</v>
       </c>
       <c r="M10" t="n">
-        <v>5299.7699</v>
+        <v>13409.4</v>
       </c>
       <c r="N10" t="n">
-        <v>250953.1087</v>
+        <v>577469.6</v>
       </c>
       <c r="O10" t="n">
-        <v>796.5651</v>
+        <v>2494.7</v>
       </c>
       <c r="P10" t="n">
-        <v>2695.1709</v>
+        <v>7531.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224726.426</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+        <v>4733005.9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>29.4</v>
+      </c>
       <c r="T10" t="n">
-        <v>3464.3261</v>
+        <v>6341.8</v>
       </c>
       <c r="U10" t="n">
-        <v>38.1398</v>
+        <v>5.4</v>
       </c>
       <c r="V10" t="n">
-        <v>391.6325</v>
+        <v>222.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2525.4157</v>
+        <v>7060.9</v>
       </c>
       <c r="X10" t="n">
-        <v>94.0399</v>
+        <v>197.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>45696.219</v>
+        <v>216544.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>606</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>2173.7807</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.4749</v>
+      </c>
       <c r="D11" t="n">
-        <v>394</v>
+        <v>2015.985</v>
       </c>
       <c r="E11" t="n">
-        <v>558</v>
+        <v>4264.7005</v>
       </c>
       <c r="F11" t="n">
-        <v>2492696</v>
+        <v>5821535.117</v>
       </c>
       <c r="G11" t="n">
-        <v>463</v>
+        <v>1864.5796</v>
       </c>
       <c r="H11" t="n">
-        <v>52756</v>
+        <v>80043.04240000001</v>
       </c>
       <c r="I11" t="n">
-        <v>130</v>
+        <v>1862.581</v>
       </c>
       <c r="J11" t="n">
-        <v>704</v>
+        <v>4265.2721</v>
       </c>
       <c r="K11" t="n">
-        <v>1614</v>
+        <v>9825.669</v>
       </c>
       <c r="L11" t="n">
-        <v>9655</v>
+        <v>35029.4094</v>
       </c>
       <c r="M11" t="n">
-        <v>5564</v>
+        <v>15606.353</v>
       </c>
       <c r="N11" t="n">
-        <v>208533</v>
+        <v>573630.4819</v>
       </c>
       <c r="O11" t="n">
-        <v>800</v>
+        <v>2944.2677</v>
       </c>
       <c r="P11" t="n">
-        <v>2466</v>
+        <v>9863.7585</v>
       </c>
       <c r="Q11" t="n">
-        <v>2064177</v>
+        <v>4822955.3608</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>122.6911</v>
+      </c>
+      <c r="S11" t="n">
+        <v>71.4898</v>
+      </c>
       <c r="T11" t="n">
-        <v>4744</v>
+        <v>7725.2088</v>
       </c>
       <c r="U11" t="n">
-        <v>16</v>
+        <v>1.8277</v>
       </c>
       <c r="V11" t="n">
-        <v>323</v>
+        <v>85.6981</v>
       </c>
       <c r="W11" t="n">
-        <v>3724</v>
+        <v>8784.675999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>48.5333</v>
       </c>
       <c r="Y11" t="n">
-        <v>135426</v>
+        <v>238333.6287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>841.7</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>1614.1022</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0636</v>
+      </c>
       <c r="D12" t="n">
-        <v>1138.6</v>
+        <v>2440.8644</v>
       </c>
       <c r="E12" t="n">
-        <v>270</v>
+        <v>5066.3582</v>
       </c>
       <c r="F12" t="n">
-        <v>3301671.1</v>
+        <v>6472972.7618</v>
       </c>
       <c r="G12" t="n">
-        <v>382.1</v>
+        <v>2086.5628</v>
       </c>
       <c r="H12" t="n">
-        <v>35249.6</v>
+        <v>92282.0429</v>
       </c>
       <c r="I12" t="n">
-        <v>196.5</v>
+        <v>2408.3789</v>
       </c>
       <c r="J12" t="n">
-        <v>374.1</v>
+        <v>548.5041</v>
       </c>
       <c r="K12" t="n">
-        <v>2841.4</v>
+        <v>11660.1727</v>
       </c>
       <c r="L12" t="n">
-        <v>12763.6</v>
+        <v>32217.9664</v>
       </c>
       <c r="M12" t="n">
-        <v>40715.5</v>
+        <v>12193.7562</v>
       </c>
       <c r="N12" t="n">
-        <v>276449.5</v>
+        <v>605303.075</v>
       </c>
       <c r="O12" t="n">
-        <v>975.4</v>
+        <v>3371.8773</v>
       </c>
       <c r="P12" t="n">
-        <v>3161</v>
+        <v>9967.0406</v>
       </c>
       <c r="Q12" t="n">
-        <v>2722026.4</v>
+        <v>5346847.7286</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>193.9304</v>
       </c>
       <c r="S12" t="n">
-        <v>28</v>
+        <v>88.0802</v>
       </c>
       <c r="T12" t="n">
-        <v>2260.4</v>
+        <v>7241.1508</v>
       </c>
       <c r="U12" t="n">
-        <v>35.4</v>
+        <v>0.5677</v>
       </c>
       <c r="V12" t="n">
-        <v>329.4</v>
+        <v>51.4629</v>
       </c>
       <c r="W12" t="n">
-        <v>7005.2</v>
+        <v>8730.646500000001</v>
       </c>
       <c r="X12" t="n">
-        <v>22.1</v>
+        <v>196.7507</v>
       </c>
       <c r="Y12" t="n">
-        <v>194602.9</v>
+        <v>328461.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1493.9184</v>
+        <v>4643</v>
       </c>
       <c r="C13" t="n">
-        <v>5.5482</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>1307.6006</v>
+        <v>3905</v>
       </c>
       <c r="E13" t="n">
-        <v>209.1695</v>
+        <v>12996</v>
       </c>
       <c r="F13" t="n">
-        <v>4089432.4457</v>
+        <v>8056230</v>
       </c>
       <c r="G13" t="n">
-        <v>341.2766</v>
+        <v>2012</v>
       </c>
       <c r="H13" t="n">
-        <v>45302.4358</v>
+        <v>105016</v>
       </c>
       <c r="I13" t="n">
-        <v>119.3753</v>
+        <v>3657</v>
       </c>
       <c r="J13" t="n">
-        <v>496.6332</v>
+        <v>401</v>
       </c>
       <c r="K13" t="n">
-        <v>3067.5932</v>
+        <v>16711</v>
       </c>
       <c r="L13" t="n">
-        <v>17118.6371</v>
+        <v>39740</v>
       </c>
       <c r="M13" t="n">
-        <v>13516.3238</v>
+        <v>15179</v>
       </c>
       <c r="N13" t="n">
-        <v>373669.2808</v>
+        <v>856063</v>
       </c>
       <c r="O13" t="n">
-        <v>1327.7397</v>
+        <v>5365</v>
       </c>
       <c r="P13" t="n">
-        <v>3813.4984</v>
+        <v>13177</v>
       </c>
       <c r="Q13" t="n">
-        <v>3390993.7531</v>
+        <v>6638009</v>
       </c>
       <c r="R13" t="n">
-        <v>18.4639</v>
+        <v>1128</v>
       </c>
       <c r="S13" t="n">
-        <v>56.3034</v>
+        <v>243</v>
       </c>
       <c r="T13" t="n">
-        <v>13385.9903</v>
-      </c>
-      <c r="U13" t="n">
-        <v>19.5909</v>
-      </c>
+        <v>8764</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>345.1841</v>
+        <v>77</v>
       </c>
       <c r="W13" t="n">
-        <v>3781.5931</v>
+        <v>10229</v>
       </c>
       <c r="X13" t="n">
-        <v>35.7568</v>
+        <v>96</v>
       </c>
       <c r="Y13" t="n">
-        <v>219006.7095</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>14344.9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>3398.3</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>4486756.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>407.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>64009.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>164</v>
-      </c>
-      <c r="J14" t="n">
-        <v>403.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3668.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>21402.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>9665.299999999999</v>
-      </c>
-      <c r="N14" t="n">
-        <v>386454.2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2016</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4381.8</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3772830.9</v>
-      </c>
-      <c r="R14" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="T14" t="n">
-        <v>13361.2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
-      <c r="V14" t="n">
-        <v>396.4</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7174.6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>182320</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>753.4</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>1865.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>254.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4461455.6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>55307</v>
-      </c>
-      <c r="I15" t="n">
-        <v>318.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1948</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3680.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>24449.8</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9034.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>413168.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3848</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4504.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3755416.3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="T15" t="n">
-        <v>38048.3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>427.9</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5447.3</v>
-      </c>
-      <c r="X15" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>142245.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>464.4545</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>2062.0381</v>
-      </c>
-      <c r="E16" t="n">
-        <v>519.886</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4657213.0442</v>
-      </c>
-      <c r="G16" t="n">
-        <v>934.1087</v>
-      </c>
-      <c r="H16" t="n">
-        <v>63645.7258</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1045.6183</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1942.0258</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4944.1578</v>
-      </c>
-      <c r="L16" t="n">
-        <v>28725.4471</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9075.384</v>
-      </c>
-      <c r="N16" t="n">
-        <v>473793.8735</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2394.3302</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4857.8521</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3914595.036</v>
-      </c>
-      <c r="R16" t="n">
-        <v>275.1563</v>
-      </c>
-      <c r="S16" t="n">
-        <v>122.3866</v>
-      </c>
-      <c r="T16" t="n">
-        <v>18023.6368</v>
-      </c>
-      <c r="U16" t="n">
-        <v>5.8599</v>
-      </c>
-      <c r="V16" t="n">
-        <v>401.9052</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5586.6588</v>
-      </c>
-      <c r="X16" t="n">
-        <v>105.6619</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>123691.8408</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1187.4</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>4246.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>580.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5048905.6</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1211.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>98699.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1902.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1428.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8060.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>32674.6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10292</v>
-      </c>
-      <c r="N17" t="n">
-        <v>491906</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2701.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>9089.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4030650.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>180.8</v>
-      </c>
-      <c r="S17" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>7030.9</v>
-      </c>
-      <c r="U17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="V17" t="n">
-        <v>375.1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6226.6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>340315.9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>562.7</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>2486.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>784.9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4754870.7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1418.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>64805.3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1917.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>321.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8655.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>38405.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>8565.5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>476828.3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3032.7</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5175.2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3732740.1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>6373.9</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V18" t="n">
-        <v>280.7</v>
-      </c>
-      <c r="W18" t="n">
-        <v>6958.8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>261.1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>395078.3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1834.7</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>1539.8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>388.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5126407.3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2628.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>77499.39999999999</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1683.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>741.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9258.200000000001</v>
-      </c>
-      <c r="L19" t="n">
-        <v>36549.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>8533</v>
-      </c>
-      <c r="N19" t="n">
-        <v>510010.3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2794.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5931.8</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4143822.8</v>
-      </c>
-      <c r="R19" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>6558.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
-      <c r="V19" t="n">
-        <v>305</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6388.1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>223</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>309640.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1242.5</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>1783.6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1748.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5709073.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1854.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>78557.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1372.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>518.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11824.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>45667</v>
-      </c>
-      <c r="M20" t="n">
-        <v>13409.4</v>
-      </c>
-      <c r="N20" t="n">
-        <v>577469.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2494.7</v>
-      </c>
-      <c r="P20" t="n">
-        <v>7531.9</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4733005.9</v>
-      </c>
-      <c r="R20" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>6341.8</v>
-      </c>
-      <c r="U20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="V20" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>7060.9</v>
-      </c>
-      <c r="X20" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>216544.9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2173.7807</v>
-      </c>
-      <c r="C21" t="n">
-        <v>14.4749</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2015.985</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4264.7005</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5821535.117</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1864.5796</v>
-      </c>
-      <c r="H21" t="n">
-        <v>80043.04240000001</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1862.581</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4265.2721</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9825.669</v>
-      </c>
-      <c r="L21" t="n">
-        <v>35029.4094</v>
-      </c>
-      <c r="M21" t="n">
-        <v>15606.353</v>
-      </c>
-      <c r="N21" t="n">
-        <v>573630.4819</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2944.2677</v>
-      </c>
-      <c r="P21" t="n">
-        <v>9863.7585</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4822955.3608</v>
-      </c>
-      <c r="R21" t="n">
-        <v>122.6911</v>
-      </c>
-      <c r="S21" t="n">
-        <v>71.4898</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7725.2088</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.8277</v>
-      </c>
-      <c r="V21" t="n">
-        <v>85.6981</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8784.675999999999</v>
-      </c>
-      <c r="X21" t="n">
-        <v>48.5333</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>238333.6287</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1614.1022</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0636</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2440.8644</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5066.3582</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6472972.7618</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2086.5628</v>
-      </c>
-      <c r="H22" t="n">
-        <v>92282.0429</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2408.3789</v>
-      </c>
-      <c r="J22" t="n">
-        <v>548.5041</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11660.1727</v>
-      </c>
-      <c r="L22" t="n">
-        <v>32217.9664</v>
-      </c>
-      <c r="M22" t="n">
-        <v>12193.7562</v>
-      </c>
-      <c r="N22" t="n">
-        <v>605303.075</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3371.8773</v>
-      </c>
-      <c r="P22" t="n">
-        <v>9967.0406</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5346847.7286</v>
-      </c>
-      <c r="R22" t="n">
-        <v>193.9304</v>
-      </c>
-      <c r="S22" t="n">
-        <v>88.0802</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7241.1508</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.5677</v>
-      </c>
-      <c r="V22" t="n">
-        <v>51.4629</v>
-      </c>
-      <c r="W22" t="n">
-        <v>8730.646500000001</v>
-      </c>
-      <c r="X22" t="n">
-        <v>196.7507</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>328461.58</v>
+        <v>318785</v>
       </c>
     </row>
   </sheetData>
